--- a/材料服务费收集模版v5.4.xlsx
+++ b/材料服务费收集模版v5.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="填写说明" sheetId="3" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="___INDEX_SHEET___ASAP_Utilities" localSheetId="0">填写说明!#REF!</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="223">
   <si>
     <t>填写说明：</t>
   </si>
@@ -424,15 +424,9 @@
     </r>
   </si>
   <si>
-    <t>JSCL01</t>
-  </si>
-  <si>
     <t>00000000</t>
   </si>
   <si>
-    <t>外牙短接</t>
-  </si>
-  <si>
     <t>个</t>
   </si>
   <si>
@@ -457,145 +451,25 @@
     <t>删除此材料单</t>
   </si>
   <si>
-    <t>JSCL03</t>
-  </si>
-  <si>
-    <t>镀锌内牙弯头135°</t>
-  </si>
-  <si>
     <t>新增此材料单</t>
   </si>
   <si>
-    <t>JSCL04</t>
-  </si>
-  <si>
-    <t>镀锌内外牙弯头</t>
-  </si>
-  <si>
-    <t>JSCL07</t>
-  </si>
-  <si>
-    <t>仪损费</t>
-  </si>
-  <si>
-    <t>JSCL08</t>
-  </si>
-  <si>
-    <t>表接头胶垫</t>
-  </si>
-  <si>
     <t>改管配件</t>
   </si>
   <si>
-    <t>GGPJ</t>
-  </si>
-  <si>
-    <t>JSCL09</t>
-  </si>
-  <si>
-    <t>单面内螺纹套筒DN15</t>
-  </si>
-  <si>
-    <t>JSCL10</t>
-  </si>
-  <si>
-    <t>非定长波纹软管DN15</t>
-  </si>
-  <si>
     <t>户</t>
   </si>
   <si>
-    <t>非定长管</t>
-  </si>
-  <si>
-    <t>FDCG</t>
-  </si>
-  <si>
-    <t>JSCL11</t>
-  </si>
-  <si>
-    <t>非定长波纹软管DN16</t>
-  </si>
-  <si>
-    <t>JSCL12</t>
-  </si>
-  <si>
-    <t>带底座直通DN15</t>
-  </si>
-  <si>
-    <t>JSCL14</t>
-  </si>
-  <si>
-    <t>三外丝铜三通DN15</t>
-  </si>
-  <si>
-    <t>JSCL15</t>
-  </si>
-  <si>
-    <t>定长波纹软管DN10_L= 1000mm</t>
-  </si>
-  <si>
-    <t>定长管</t>
-  </si>
-  <si>
-    <t>DCG</t>
-  </si>
-  <si>
-    <t>JSCL16</t>
-  </si>
-  <si>
-    <t>定长波纹软管DN10_L= 2000mm</t>
-  </si>
-  <si>
-    <t>JSCL17</t>
-  </si>
-  <si>
     <t>把价格从20改成25</t>
   </si>
   <si>
-    <t>JSCL18</t>
-  </si>
-  <si>
-    <t>考克（灶前阀）</t>
-  </si>
-  <si>
     <t>把价格从10改成8</t>
   </si>
   <si>
-    <t>JSCL19</t>
-  </si>
-  <si>
-    <t>铜等径外牙直通_S1/2*1/2M</t>
-  </si>
-  <si>
-    <t>JSCL20</t>
-  </si>
-  <si>
-    <t>铜等径内牙三通_T1/2F*1/2F*1/2F</t>
-  </si>
-  <si>
     <t>把分类从改管配件改成点火配件</t>
   </si>
   <si>
-    <t>JSFW01</t>
-  </si>
-  <si>
-    <t>上门服务费</t>
-  </si>
-  <si>
     <t>次</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>服务费</t>
-  </si>
-  <si>
-    <t>FWF</t>
-  </si>
-  <si>
-    <t>JSFW02</t>
   </si>
   <si>
     <t>/*APP材料单配置模版*/
@@ -650,12 +524,477 @@
     <t>BF_VAL</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>10004996</t>
+  </si>
+  <si>
+    <t>10006243</t>
+  </si>
+  <si>
+    <t>10005610</t>
+  </si>
+  <si>
+    <t>10005609</t>
+  </si>
+  <si>
+    <t>10004662</t>
+  </si>
+  <si>
+    <t>10006762</t>
+  </si>
+  <si>
+    <t>10003214</t>
+  </si>
+  <si>
+    <t>10003215</t>
+  </si>
+  <si>
+    <t>10002787</t>
+  </si>
+  <si>
+    <t>10005335</t>
+  </si>
+  <si>
+    <t>10004872</t>
+  </si>
+  <si>
+    <t>10005336</t>
+  </si>
+  <si>
+    <t>10005654</t>
+  </si>
+  <si>
+    <t>10006710</t>
+  </si>
+  <si>
+    <t>10005291</t>
+  </si>
+  <si>
+    <t>10004586</t>
+  </si>
+  <si>
+    <t>10001510</t>
+  </si>
+  <si>
+    <t>10005866</t>
+  </si>
+  <si>
+    <t>10005296</t>
+  </si>
+  <si>
+    <t>10005806</t>
+  </si>
+  <si>
+    <t>10006711</t>
+  </si>
+  <si>
+    <t>镀锌管DN15（高邮）</t>
+  </si>
+  <si>
+    <t>镀锌管DN25（高邮）</t>
+  </si>
+  <si>
+    <t>镀锌管DN40（高邮）</t>
+  </si>
+  <si>
+    <t>镀锌管DN50（高邮）</t>
+  </si>
+  <si>
+    <t>燃气表（高邮）</t>
+  </si>
+  <si>
+    <t>表箱（高邮）</t>
+  </si>
+  <si>
+    <t>燃气软管DL9100（高邮）</t>
+  </si>
+  <si>
+    <t>燃气软管DL9150（高邮）</t>
+  </si>
+  <si>
+    <t>燃气软管DL9200（高邮）</t>
+  </si>
+  <si>
+    <t>不锈钢波纹管（高邮）</t>
+  </si>
+  <si>
+    <t>内丝快接（高邮）</t>
+  </si>
+  <si>
+    <t>宝塔接头（高邮）</t>
+  </si>
+  <si>
+    <t>外丝胶管球阀DN15（高邮）</t>
+  </si>
+  <si>
+    <t>内丝胶管球阀DN15（高邮）</t>
+  </si>
+  <si>
+    <t>黄铜内螺纹球阀DN15（高邮）</t>
+  </si>
+  <si>
+    <t>黄铜内螺纹锁阀DN15（高邮）</t>
+  </si>
+  <si>
+    <t>底座球阀DN15（高邮）</t>
+  </si>
+  <si>
+    <t>表垫圈（高邮）</t>
+  </si>
+  <si>
+    <t>镀锌三通（高邮）</t>
+  </si>
+  <si>
+    <t>镀锌弯头（高邮）</t>
+  </si>
+  <si>
+    <t>外丝直接（高邮）</t>
+  </si>
+  <si>
+    <t>丝堵（高邮）</t>
+  </si>
+  <si>
+    <t>表接头（高邮）</t>
+  </si>
+  <si>
+    <t>骑马卡（高邮）</t>
+  </si>
+  <si>
+    <t>自攻螺丝（高邮）</t>
+  </si>
+  <si>
+    <t>生料带（高邮）</t>
+  </si>
+  <si>
+    <t>电池（高邮）</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>根</t>
+  </si>
+  <si>
+    <t>对</t>
+  </si>
+  <si>
+    <t>节</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQI_CD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005292</t>
+  </si>
+  <si>
+    <t>10000356</t>
+  </si>
+  <si>
+    <t>10000225</t>
+  </si>
+  <si>
+    <t>10000286</t>
+  </si>
+  <si>
+    <t>10001487</t>
+  </si>
+  <si>
+    <t>10001091</t>
+  </si>
+  <si>
+    <t>10001092</t>
+  </si>
+  <si>
+    <t>10005868</t>
+  </si>
+  <si>
+    <t>10005934</t>
+  </si>
+  <si>
+    <t>10005886</t>
+  </si>
+  <si>
+    <t>10005835</t>
+  </si>
+  <si>
+    <t>10005837</t>
+  </si>
+  <si>
+    <t>10005805</t>
+  </si>
+  <si>
+    <t>10005842</t>
+  </si>
+  <si>
+    <t>10005844</t>
+  </si>
+  <si>
+    <t>10005845</t>
+  </si>
+  <si>
+    <t>镀锌管DN15</t>
+  </si>
+  <si>
+    <t>镀锌管DN25</t>
+  </si>
+  <si>
+    <t>镀锌管DN32</t>
+  </si>
+  <si>
+    <t>镀锌管DN40</t>
+  </si>
+  <si>
+    <t>镀锌管DN50</t>
+  </si>
+  <si>
+    <t>PVC套管DN50</t>
+  </si>
+  <si>
+    <t>燃气表</t>
+  </si>
+  <si>
+    <t>表接头</t>
+  </si>
+  <si>
+    <t>表垫圈</t>
+  </si>
+  <si>
+    <t>表箱</t>
+  </si>
+  <si>
+    <t>燃气软管DL9100</t>
+  </si>
+  <si>
+    <t>燃气软管DL9150</t>
+  </si>
+  <si>
+    <t>燃气软管DL9200</t>
+  </si>
+  <si>
+    <t>不锈钢波纹管（非定尺）</t>
+  </si>
+  <si>
+    <t>内丝快接</t>
+  </si>
+  <si>
+    <t>宝塔接头</t>
+  </si>
+  <si>
+    <t>内丝胶管球阀DN15</t>
+  </si>
+  <si>
+    <t>外丝胶管球阀DN15</t>
+  </si>
+  <si>
+    <t>黄铜内螺纹球阀DN15</t>
+  </si>
+  <si>
+    <t>黄铜内螺纹球阀DN25</t>
+  </si>
+  <si>
+    <t>黄铜内螺纹球阀DN32</t>
+  </si>
+  <si>
+    <t>黄铜内螺纹球阀DN40</t>
+  </si>
+  <si>
+    <t>黄铜内螺纹球阀DN50</t>
+  </si>
+  <si>
+    <t>黄铜内螺纹锁阀DN15</t>
+  </si>
+  <si>
+    <t>底座球阀DN15</t>
+  </si>
+  <si>
+    <t>镀锌三通DN15</t>
+  </si>
+  <si>
+    <t>镀锌三通DN25</t>
+  </si>
+  <si>
+    <t>镀锌三通DN32</t>
+  </si>
+  <si>
+    <t>镀锌三通DN40</t>
+  </si>
+  <si>
+    <t>镀锌三通DN50</t>
+  </si>
+  <si>
+    <t>镀锌弯头DN15</t>
+  </si>
+  <si>
+    <t>镀锌弯头DN25</t>
+  </si>
+  <si>
+    <t>镀锌弯头DN32</t>
+  </si>
+  <si>
+    <t>镀锌弯头DN40</t>
+  </si>
+  <si>
+    <t>镀锌弯头DN50</t>
+  </si>
+  <si>
+    <t>内（外）丝直接DN15</t>
+  </si>
+  <si>
+    <t>内（外）丝直接DN25</t>
+  </si>
+  <si>
+    <t>内（外）丝直接DN32</t>
+  </si>
+  <si>
+    <t>内（外）丝直接DN40</t>
+  </si>
+  <si>
+    <t>内（外）丝直接DN50</t>
+  </si>
+  <si>
+    <t>丝堵DN15</t>
+  </si>
+  <si>
+    <t>丝堵DN25</t>
+  </si>
+  <si>
+    <t>丝堵DN32</t>
+  </si>
+  <si>
+    <t>丝堵DN40</t>
+  </si>
+  <si>
+    <t>丝堵DN50</t>
+  </si>
+  <si>
+    <t>变径DN50转DN40</t>
+  </si>
+  <si>
+    <t>变径DN50转DN32</t>
+  </si>
+  <si>
+    <t>变径DN50转DN25</t>
+  </si>
+  <si>
+    <t>变径DN50转DN15</t>
+  </si>
+  <si>
+    <t>变径DN40转DN32</t>
+  </si>
+  <si>
+    <t>变径DN40转DN25</t>
+  </si>
+  <si>
+    <t>变径DN40转DN15</t>
+  </si>
+  <si>
+    <t>变径DN32转DN25</t>
+  </si>
+  <si>
+    <t>变径DN32转DN15</t>
+  </si>
+  <si>
+    <t>变径DN25转DN15</t>
+  </si>
+  <si>
+    <t>镀锌管支架</t>
+  </si>
+  <si>
+    <t>骑马卡</t>
+  </si>
+  <si>
+    <t>自攻螺丝</t>
+  </si>
+  <si>
+    <t>生料带</t>
+  </si>
+  <si>
+    <t>电池</t>
+  </si>
+  <si>
+    <t>上门检修服务费</t>
+  </si>
+  <si>
+    <t>燃气设施拆除费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">燃气管道改装费 </t>
+  </si>
+  <si>
+    <t>燃气表移位、移装、换装费</t>
+  </si>
+  <si>
+    <t>表垫圈(高邮预付)</t>
+  </si>
+  <si>
+    <t>燃气软管DL9100(高邮预付)</t>
+  </si>
+  <si>
+    <t>燃气软管DL9150(高邮预付)</t>
+  </si>
+  <si>
+    <t>燃气软管DL9200(高邮预付)</t>
+  </si>
+  <si>
+    <t>不锈钢波纹管（非定尺）(高邮预付)</t>
+  </si>
+  <si>
+    <t>内丝快接(高邮预付)</t>
+  </si>
+  <si>
+    <t>宝塔接头(高邮预付)</t>
+  </si>
+  <si>
+    <t>内丝胶管球阀DN15(高邮预付)</t>
+  </si>
+  <si>
+    <t>外丝胶管球阀DN15(高邮预付)</t>
+  </si>
+  <si>
+    <t>底座球阀DN15(高邮预付)</t>
+  </si>
+  <si>
+    <t>镀锌三通DN15(高邮预付)</t>
+  </si>
+  <si>
+    <t>镀锌弯头DN15(高邮预付)</t>
+  </si>
+  <si>
+    <t>内（外）丝直接DN15(高邮预付)</t>
+  </si>
+  <si>
+    <t>骑马卡(高邮预付)</t>
+  </si>
+  <si>
+    <t>自攻螺丝(高邮预付)</t>
+  </si>
+  <si>
+    <t>生料带(高邮预付)</t>
+  </si>
+  <si>
+    <t>电池(高邮预付)</t>
+  </si>
+  <si>
+    <t>只</t>
+  </si>
+  <si>
+    <t>卷</t>
+  </si>
+  <si>
+    <t>GG</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -734,8 +1073,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +1109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,10 +1156,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -816,7 +1183,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -832,10 +1198,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1253,104 +1653,104 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="11"/>
-    <col min="2" max="2" width="106.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="41.625" style="12" customWidth="1"/>
-    <col min="4" max="19" width="7" style="12"/>
-    <col min="20" max="16384" width="7" style="11"/>
+    <col min="1" max="1" width="7" style="10"/>
+    <col min="2" max="2" width="106.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="11" customWidth="1"/>
+    <col min="4" max="19" width="7" style="11"/>
+    <col min="20" max="16384" width="7" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="18">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1362,11 +1762,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:T20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1502,899 +1902,3455 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
+      <c r="B3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>3</v>
+      <c r="F3" s="24">
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="B4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S4">
         <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
+      <c r="B5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>3</v>
+      <c r="F5" s="24">
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="R5" t="s">
+        <v>53</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
+      <c r="B6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>9</v>
+      <c r="F6" s="24">
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="R6" t="s">
+        <v>53</v>
       </c>
       <c r="S6">
         <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
+      <c r="B7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>16</v>
+      <c r="F7" s="24">
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="R7" t="s">
+        <v>53</v>
       </c>
       <c r="S7">
         <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
+      <c r="B8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>3</v>
+      <c r="F8" s="24">
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="P8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>53</v>
       </c>
       <c r="S8">
         <v>6</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
+      <c r="B9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>6</v>
+      <c r="F9" s="24">
+        <v>484</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
+        <v>53</v>
       </c>
       <c r="S9">
         <v>7</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
+      <c r="B10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>95</v>
+      <c r="F10" s="24">
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="P10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="R10" t="s">
+        <v>53</v>
       </c>
       <c r="S10">
         <v>8</v>
       </c>
       <c r="T10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="25" customFormat="1">
+      <c r="A11"/>
+      <c r="B11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <v>2</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="25">
+        <v>9</v>
+      </c>
+      <c r="T11" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="25" customFormat="1">
+      <c r="A12"/>
+      <c r="B12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <v>100</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" s="25">
+        <v>10</v>
+      </c>
+      <c r="T12" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="25" customFormat="1">
+      <c r="A13"/>
+      <c r="B13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27">
+        <v>30</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="25">
+        <v>11</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="25" customFormat="1">
+      <c r="A14"/>
+      <c r="B14" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="25">
+        <v>2</v>
+      </c>
+      <c r="F14" s="27">
+        <v>40</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S14" s="25">
+        <v>12</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="25" customFormat="1">
+      <c r="A15"/>
+      <c r="B15" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27">
+        <v>50</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" s="25">
+        <v>13</v>
+      </c>
+      <c r="T15" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="25" customFormat="1">
+      <c r="A16"/>
+      <c r="B16" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
+        <v>50</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" s="25">
+        <v>14</v>
+      </c>
+      <c r="T16" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+    <row r="17" spans="1:20" s="25" customFormat="1">
+      <c r="A17"/>
+      <c r="B17" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>15</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S17" s="25">
+        <v>15</v>
+      </c>
+      <c r="T17" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="25" customFormat="1">
+      <c r="A18"/>
+      <c r="B18" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
+        <v>15</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S18" s="25">
+        <v>16</v>
+      </c>
+      <c r="T18" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="25" customFormat="1">
+      <c r="A19"/>
+      <c r="B19" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="27">
+        <v>30</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" s="25">
+        <v>17</v>
+      </c>
+      <c r="T19" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="25" customFormat="1">
+      <c r="A20"/>
+      <c r="B20" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0</v>
+      </c>
+      <c r="F20" s="27">
+        <v>30</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S20" s="25">
+        <v>18</v>
+      </c>
+      <c r="T20" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="25" customFormat="1">
+      <c r="A21"/>
+      <c r="B21" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
+        <v>30</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R21" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="25" customFormat="1">
+      <c r="A22"/>
+      <c r="B22" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
+        <v>40</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="25" customFormat="1">
+      <c r="A23"/>
+      <c r="B23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27">
+        <v>40</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="25" customFormat="1">
+      <c r="A24"/>
+      <c r="B24" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27">
+        <v>50</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="25" customFormat="1">
+      <c r="A25"/>
+      <c r="B25" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
+        <v>60</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="25" customFormat="1">
+      <c r="A26"/>
+      <c r="B26" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
+        <v>30</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="25" customFormat="1">
+      <c r="A27"/>
+      <c r="B27" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <v>30</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R27" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="25" customFormat="1">
+      <c r="A28"/>
+      <c r="B28" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
+        <v>10</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R28" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="25" customFormat="1">
+      <c r="A29"/>
+      <c r="B29" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <v>15</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P29" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R29" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="25" customFormat="1">
+      <c r="B30" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <v>15</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P30" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R30" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="25" customFormat="1">
+      <c r="B31" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
+        <v>20</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P31" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R31" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="25" customFormat="1">
+      <c r="B32" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="25">
+        <v>0</v>
+      </c>
+      <c r="F32" s="27">
+        <v>25</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R32" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" s="25" customFormat="1">
+      <c r="B33" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33" s="25">
+        <v>0</v>
+      </c>
+      <c r="F33" s="27">
+        <v>10</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R33" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" s="25" customFormat="1">
+      <c r="B34" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="25">
+        <v>0</v>
+      </c>
+      <c r="F34" s="27">
+        <v>15</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P34" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R34" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" s="25" customFormat="1">
+      <c r="B35" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="25">
+        <v>0</v>
+      </c>
+      <c r="F35" s="27">
+        <v>15</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P35" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q35" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R35" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" s="25" customFormat="1">
+      <c r="B36" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="25">
+        <v>0</v>
+      </c>
+      <c r="F36" s="27">
+        <v>20</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R36" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" s="25" customFormat="1">
+      <c r="B37" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="25">
+        <v>0</v>
+      </c>
+      <c r="F37" s="27">
+        <v>25</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P37" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R37" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" s="25" customFormat="1">
+      <c r="B38" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0</v>
+      </c>
+      <c r="F38" s="27">
+        <v>10</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P38" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R38" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" s="25" customFormat="1">
+      <c r="B39" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="25">
+        <v>0</v>
+      </c>
+      <c r="F39" s="27">
+        <v>15</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P39" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R39" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" s="25" customFormat="1">
+      <c r="B40" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="25">
+        <v>0</v>
+      </c>
+      <c r="F40" s="27">
+        <v>15</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L40" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N40" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P40" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R40" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" s="25" customFormat="1">
+      <c r="B41" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="25">
+        <v>0</v>
+      </c>
+      <c r="F41" s="27">
+        <v>20</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P41" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R41" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" s="25" customFormat="1">
+      <c r="B42" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" s="25">
+        <v>0</v>
+      </c>
+      <c r="F42" s="27">
+        <v>25</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N42" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P42" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R42" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" s="25" customFormat="1">
+      <c r="B43" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="25">
+        <v>0</v>
+      </c>
+      <c r="F43" s="27">
+        <v>10</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N43" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P43" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R43" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" s="25" customFormat="1">
+      <c r="B44" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="25">
+        <v>0</v>
+      </c>
+      <c r="F44" s="27">
+        <v>15</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N44" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P44" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R44" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" s="25" customFormat="1">
+      <c r="B45" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="25">
+        <v>0</v>
+      </c>
+      <c r="F45" s="27">
+        <v>15</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L45" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N45" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P45" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q45" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R45" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" s="25" customFormat="1">
+      <c r="B46" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="25">
+        <v>0</v>
+      </c>
+      <c r="F46" s="27">
+        <v>20</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L46" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N46" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P46" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R46" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" s="25" customFormat="1">
+      <c r="B47" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="25">
+        <v>0</v>
+      </c>
+      <c r="F47" s="27">
+        <v>25</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L47" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N47" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P47" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R47" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" s="25" customFormat="1">
+      <c r="B48" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="25">
+        <v>0</v>
+      </c>
+      <c r="F48" s="27">
+        <v>25</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L48" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N48" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P48" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q48" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R48" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" s="25" customFormat="1">
+      <c r="B49" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="25">
+        <v>0</v>
+      </c>
+      <c r="F49" s="27">
+        <v>20</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L49" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N49" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O49" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P49" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R49" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" s="25" customFormat="1">
+      <c r="B50" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E50" s="25">
+        <v>0</v>
+      </c>
+      <c r="F50" s="27">
+        <v>20</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N50" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O50" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P50" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q50" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R50" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" s="25" customFormat="1">
+      <c r="B51" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="25">
+        <v>0</v>
+      </c>
+      <c r="F51" s="27">
+        <v>20</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L51" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N51" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O51" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P51" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q51" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R51" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" s="25" customFormat="1">
+      <c r="B52" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" s="25">
+        <v>0</v>
+      </c>
+      <c r="F52" s="27">
+        <v>20</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L52" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N52" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O52" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P52" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q52" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R52" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" s="25" customFormat="1">
+      <c r="B53" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="25">
+        <v>0</v>
+      </c>
+      <c r="F53" s="27">
+        <v>20</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L53" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N53" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O53" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P53" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q53" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R53" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" s="25" customFormat="1">
+      <c r="B54" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="25">
+        <v>0</v>
+      </c>
+      <c r="F54" s="27">
+        <v>20</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L54" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N54" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O54" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P54" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q54" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R54" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" s="25" customFormat="1">
+      <c r="B55" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="25">
+        <v>0</v>
+      </c>
+      <c r="F55" s="27">
+        <v>20</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L55" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N55" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P55" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R55" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" s="25" customFormat="1">
+      <c r="B56" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="25">
+        <v>0</v>
+      </c>
+      <c r="F56" s="27">
+        <v>20</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L56" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N56" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O56" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P56" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q56" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R56" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" s="25" customFormat="1">
+      <c r="B57" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="25">
+        <v>0</v>
+      </c>
+      <c r="F57" s="27">
+        <v>15</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L57" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N57" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O57" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P57" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q57" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R57" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" s="25" customFormat="1">
+      <c r="B58" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" s="25">
+        <v>0</v>
+      </c>
+      <c r="F58" s="27">
+        <v>20</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L58" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N58" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O58" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P58" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q58" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R58" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" s="25" customFormat="1">
+      <c r="B59" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="25">
+        <v>0</v>
+      </c>
+      <c r="F59" s="27">
+        <v>2</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L59" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N59" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O59" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P59" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q59" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R59" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" s="25" customFormat="1">
+      <c r="B60" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="25">
+        <v>0</v>
+      </c>
+      <c r="F60" s="27">
+        <v>1</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L60" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N60" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O60" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P60" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q60" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R60" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" s="25" customFormat="1">
+      <c r="B61" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" s="25">
+        <v>0</v>
+      </c>
+      <c r="F61" s="27">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="H61" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J61" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L61" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N61" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O61" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P61" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R61" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" s="25" customFormat="1">
+      <c r="B62" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="25">
+        <v>0</v>
+      </c>
+      <c r="F62" s="27">
+        <v>2</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L62" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N62" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O62" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P62" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q62" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R62" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" s="25" customFormat="1">
+      <c r="B63" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="25">
+        <v>0</v>
+      </c>
+      <c r="F63" s="27">
+        <v>10</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L63" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N63" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O63" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P63" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q63" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R63" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" s="25" customFormat="1">
+      <c r="B64" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="25">
+        <v>0</v>
+      </c>
+      <c r="F64" s="27">
+        <v>10</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J64" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L64" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N64" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O64" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P64" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q64" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R64" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" s="25" customFormat="1">
+      <c r="B65" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="25">
+        <v>0</v>
+      </c>
+      <c r="F65" s="28">
+        <v>180</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L65" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N65" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O65" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P65" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q65" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R65" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" s="25" customFormat="1">
+      <c r="B66" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="25">
+        <v>0</v>
+      </c>
+      <c r="F66" s="28">
+        <v>150</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J66" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L66" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N66" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O66" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P66" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q66" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R66" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" s="25" customFormat="1">
+      <c r="B67" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="25">
+        <v>0</v>
+      </c>
+      <c r="F67" s="27">
+        <v>0</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L67" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N67" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O67" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P67" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q67" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R67" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" s="25" customFormat="1">
+      <c r="B68" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="25">
+        <v>0</v>
+      </c>
+      <c r="F68" s="27">
+        <v>0</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J68" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L68" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N68" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O68" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P68" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q68" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R68" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" s="25" customFormat="1">
+      <c r="B69" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="25">
+        <v>0</v>
+      </c>
+      <c r="F69" s="27">
+        <v>0</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L69" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N69" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O69" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P69" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q69" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R69" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" s="25" customFormat="1">
+      <c r="B70" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="25">
+        <v>0</v>
+      </c>
+      <c r="F70" s="27">
+        <v>0</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L70" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N70" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O70" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>55</v>
-      </c>
-      <c r="S11">
-        <v>9</v>
-      </c>
-      <c r="T11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>289</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="P70" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q70" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R70" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" s="25" customFormat="1">
+      <c r="B71" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="25">
+        <v>0</v>
+      </c>
+      <c r="F71" s="27">
+        <v>0</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L71" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N71" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O71" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N12" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>55</v>
-      </c>
-      <c r="S12">
-        <v>10</v>
-      </c>
-      <c r="T12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="P71" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q71" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R71" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" s="25" customFormat="1">
+      <c r="B72" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" s="25">
+        <v>0</v>
+      </c>
+      <c r="F72" s="27">
+        <v>0</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J72" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L72" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N72" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O72" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>55</v>
-      </c>
-      <c r="S13">
-        <v>11</v>
-      </c>
-      <c r="T13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="P72" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q72" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R72" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" s="25" customFormat="1">
+      <c r="B73" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="25">
+        <v>0</v>
+      </c>
+      <c r="F73" s="27">
+        <v>0</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L73" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N73" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O73" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N14" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" t="s">
-        <v>84</v>
-      </c>
-      <c r="R14" t="s">
-        <v>55</v>
-      </c>
-      <c r="S14">
-        <v>12</v>
-      </c>
-      <c r="T14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="P73" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q73" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R73" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" s="25" customFormat="1">
+      <c r="B74" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E74" s="25">
+        <v>0</v>
+      </c>
+      <c r="F74" s="27">
+        <v>0</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J74" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L74" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N74" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O74" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N15" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>55</v>
-      </c>
-      <c r="S15">
-        <v>13</v>
-      </c>
-      <c r="T15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="P74" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q74" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R74" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" s="25" customFormat="1">
+      <c r="B75" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" s="25">
+        <v>0</v>
+      </c>
+      <c r="F75" s="27">
+        <v>0</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J75" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L75" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N75" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O75" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>55</v>
-      </c>
-      <c r="R16" t="s">
-        <v>55</v>
-      </c>
-      <c r="S16">
-        <v>14</v>
-      </c>
-      <c r="T16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="P75" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q75" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R75" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" s="25" customFormat="1">
+      <c r="B76" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="25">
+        <v>0</v>
+      </c>
+      <c r="F76" s="27">
+        <v>0</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L76" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N76" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L17" t="s">
+      <c r="O76" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" t="s">
-        <v>54</v>
-      </c>
-      <c r="S17">
-        <v>15</v>
-      </c>
-      <c r="T17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="P76" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q76" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R76" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" s="25" customFormat="1">
+      <c r="B77" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77" s="25">
+        <v>0</v>
+      </c>
+      <c r="F77" s="27">
+        <v>0</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J77" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L77" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N77" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O77" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S18">
-        <v>16</v>
-      </c>
-      <c r="T18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="P77" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q77" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R77" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" s="25" customFormat="1">
+      <c r="B78" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E78" s="25">
+        <v>0</v>
+      </c>
+      <c r="F78" s="27">
+        <v>0</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J78" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L78" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N78" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" t="s">
-        <v>101</v>
-      </c>
-      <c r="O19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>55</v>
-      </c>
-      <c r="R19" t="s">
-        <v>55</v>
-      </c>
-      <c r="S19">
-        <v>17</v>
-      </c>
-      <c r="T19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>200</v>
-      </c>
-      <c r="H20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="O78" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q78" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R78" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" s="25" customFormat="1">
+      <c r="B79" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" s="25">
+        <v>0</v>
+      </c>
+      <c r="F79" s="27">
+        <v>0</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J79" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L79" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N79" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L20" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" t="s">
-        <v>101</v>
-      </c>
-      <c r="O20" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>55</v>
-      </c>
-      <c r="S20">
-        <v>18</v>
-      </c>
-      <c r="T20" t="s">
-        <v>59</v>
-      </c>
-    </row>
+      <c r="O79" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q79" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R79" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" s="25" customFormat="1">
+      <c r="B80" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" s="25">
+        <v>0</v>
+      </c>
+      <c r="F80" s="27">
+        <v>0</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J80" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L80" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N80" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O80" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q80" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R80" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" s="25" customFormat="1">
+      <c r="B81" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E81" s="25">
+        <v>0</v>
+      </c>
+      <c r="F81" s="27">
+        <v>0</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L81" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N81" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O81" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q81" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R81" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" s="25" customFormat="1">
+      <c r="B82" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E82" s="25">
+        <v>0</v>
+      </c>
+      <c r="F82" s="27">
+        <v>0</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J82" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L82" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N82" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O82" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q82" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R82" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" s="25" customFormat="1">
+      <c r="B83" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" s="25">
+        <v>0</v>
+      </c>
+      <c r="F83" s="27">
+        <v>0</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J83" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L83" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N83" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O83" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q83" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R83" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" s="25" customFormat="1"/>
+    <row r="85" spans="2:18" s="25" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2403,10 +5359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2432,22 +5388,22 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>32</v>
@@ -2605,952 +5561,1258 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
+      <c r="B4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="F4" s="18">
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
         <v>51</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
-      </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
+      <c r="B5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>3</v>
+      <c r="F5" s="18">
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
         <v>51</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="S5">
         <v>2</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
+      <c r="B6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>3</v>
+      <c r="F6" s="18">
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
         <v>51</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>52</v>
       </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="R6" t="s">
+        <v>121</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
+      <c r="B7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>9</v>
+      <c r="F7" s="18">
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
         <v>51</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>52</v>
       </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>54</v>
-      </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="R7" t="s">
+        <v>121</v>
       </c>
       <c r="S7">
         <v>4</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>16</v>
+      <c r="F8" s="18">
+        <v>520</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
         <v>51</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>52</v>
       </c>
-      <c r="N8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" t="s">
-        <v>67</v>
-      </c>
       <c r="P8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="R8" t="s">
+        <v>121</v>
       </c>
       <c r="S8">
         <v>5</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>3</v>
+      <c r="F9" s="18">
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
         <v>51</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>52</v>
       </c>
-      <c r="N9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" t="s">
-        <v>67</v>
-      </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="R9" t="s">
+        <v>121</v>
       </c>
       <c r="S9">
         <v>6</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
+      <c r="B10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>6</v>
+      <c r="F10" s="18">
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
         <v>51</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>52</v>
       </c>
-      <c r="N10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" t="s">
-        <v>74</v>
-      </c>
       <c r="P10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="R10" t="s">
+        <v>121</v>
       </c>
       <c r="S10">
         <v>7</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D11" t="s">
-        <v>72</v>
+      <c r="C11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>95</v>
+      <c r="F11" s="18">
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
         <v>51</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>52</v>
       </c>
-      <c r="N11" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" t="s">
-        <v>74</v>
-      </c>
       <c r="P11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q11" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="R11" t="s">
+        <v>121</v>
       </c>
       <c r="S11">
         <v>8</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" t="s">
+      <c r="B12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
+      <c r="C12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>3</v>
+      <c r="F12" s="18">
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
         <v>51</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>52</v>
       </c>
-      <c r="N12" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" t="s">
-        <v>54</v>
-      </c>
       <c r="P12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="R12" t="s">
+        <v>121</v>
       </c>
       <c r="S12">
         <v>9</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
+      <c r="B13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>289</v>
+      <c r="F13" s="18">
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
         <v>51</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>52</v>
       </c>
-      <c r="N13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" t="s">
-        <v>54</v>
-      </c>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q13" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="R13" t="s">
+        <v>121</v>
       </c>
       <c r="S13">
         <v>10</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
         <v>51</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
         <v>52</v>
       </c>
-      <c r="N14" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" t="s">
-        <v>84</v>
-      </c>
       <c r="P14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q14" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="R14" t="s">
+        <v>121</v>
       </c>
       <c r="S14">
         <v>11</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" t="s">
         <v>51</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O15" t="s">
         <v>52</v>
       </c>
-      <c r="N15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15" t="s">
-        <v>84</v>
+      <c r="P15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>121</v>
       </c>
       <c r="R15" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="S15">
         <v>12</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="18">
         <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
         <v>51</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="N16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" t="s">
-        <v>54</v>
-      </c>
       <c r="P16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q16" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="R16" t="s">
+        <v>121</v>
       </c>
       <c r="S16">
         <v>13</v>
       </c>
       <c r="T16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="10">
-        <v>8</v>
+      <c r="F17" s="18">
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
         <v>51</v>
       </c>
-      <c r="L17" t="s">
+      <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="N17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" t="s">
-        <v>54</v>
+      <c r="P17" t="s">
+        <v>53</v>
       </c>
       <c r="Q17" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="R17" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="S17">
         <v>14</v>
       </c>
       <c r="T17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>10</v>
+      <c r="F18" s="18">
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
         <v>51</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18" t="s">
         <v>52</v>
       </c>
-      <c r="N18" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" t="s">
-        <v>54</v>
+      <c r="P18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>121</v>
+      </c>
+      <c r="R18" t="s">
+        <v>121</v>
       </c>
       <c r="S18">
         <v>15</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>10</v>
+      <c r="F19" s="18">
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
         <v>51</v>
       </c>
-      <c r="L19" t="s">
+      <c r="O19" t="s">
         <v>52</v>
       </c>
-      <c r="N19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O19" t="s">
-        <v>54</v>
-      </c>
       <c r="P19" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" t="s">
+        <v>121</v>
       </c>
       <c r="S19">
         <v>16</v>
       </c>
       <c r="T19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>99</v>
-      </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>10</v>
+      <c r="F20" s="18">
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
         <v>51</v>
       </c>
-      <c r="L20" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" t="s">
-        <v>101</v>
-      </c>
       <c r="O20" t="s">
-        <v>102</v>
+        <v>52</v>
+      </c>
+      <c r="P20" t="s">
+        <v>53</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="R20" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="S20">
         <v>17</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" t="s">
-        <v>99</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>200</v>
+      <c r="F21" s="18">
+        <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" t="s">
         <v>51</v>
       </c>
-      <c r="L21" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" t="s">
-        <v>101</v>
-      </c>
       <c r="O21" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q21" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="R21" t="s">
+        <v>121</v>
       </c>
       <c r="S21">
         <v>18</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>10</v>
+      </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="L22" t="s">
+        <v>50</v>
+      </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="N22" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>121</v>
+      </c>
+      <c r="R22" t="s">
+        <v>121</v>
+      </c>
+      <c r="S22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>10</v>
+      </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
       <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="L23" t="s">
+        <v>50</v>
+      </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="N23" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R23" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>10</v>
+      </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="L24" t="s">
+        <v>50</v>
+      </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="N24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>121</v>
+      </c>
+      <c r="R24" t="s">
+        <v>121</v>
+      </c>
+      <c r="S24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>121</v>
+      </c>
+      <c r="R25" t="s">
+        <v>121</v>
+      </c>
+      <c r="S25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>121</v>
+      </c>
+      <c r="R26" t="s">
+        <v>121</v>
+      </c>
+      <c r="S26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>121</v>
+      </c>
+      <c r="R27" t="s">
+        <v>121</v>
+      </c>
+      <c r="S27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>51</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>121</v>
+      </c>
+      <c r="R28" t="s">
+        <v>121</v>
+      </c>
+      <c r="S28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>121</v>
+      </c>
+      <c r="R29" t="s">
+        <v>121</v>
+      </c>
+      <c r="S29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" t="s">
+        <v>51</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>121</v>
+      </c>
+      <c r="R30" t="s">
+        <v>121</v>
+      </c>
+      <c r="S30">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -3571,7 +6833,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
